--- a/data/am_tram26_name.xlsx
+++ b/data/am_tram26_name.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\UTNCE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8997F51F-EFA3-41FF-AE71-56B968F0D66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{547F4719-13B1-4E0A-8F16-C430568A11F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="1680" windowWidth="21600" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40965" yWindow="2910" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,10 +54,10 @@
     <t>Kattenburgerstraat</t>
   </si>
   <si>
-    <t>Centraal Station</t>
-  </si>
-  <si>
     <t>Muziekgebouw</t>
+  </si>
+  <si>
+    <t>Centraal Station_A</t>
   </si>
 </sst>
 </file>
@@ -378,7 +378,7 @@
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,12 +430,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
